--- a/QuanLyLuongSanPham_Nhom27/QuanLyLuongSanPham_Nhom27/excelData/nhanVien.xlsx
+++ b/QuanLyLuongSanPham_Nhom27/QuanLyLuongSanPham_Nhom27/excelData/nhanVien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="60">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -49,37 +49,40 @@
     <t>Lương thỏa thuận</t>
   </si>
   <si>
+    <t>Nguyễn Văn Test An</t>
+  </si>
+  <si>
+    <t>123456789124</t>
+  </si>
+  <si>
+    <t>nguye@gmail.com</t>
+  </si>
+  <si>
+    <t>+84123456789</t>
+  </si>
+  <si>
+    <t>38 Nguyen Du</t>
+  </si>
+  <si>
+    <t>12-02-2002</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Phòng quản lý</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>11-11-2022</t>
+  </si>
+  <si>
+    <t>45678900</t>
+  </si>
+  <si>
     <t>Nguyễn Văn Test</t>
-  </si>
-  <si>
-    <t>123456789124</t>
-  </si>
-  <si>
-    <t>nguye@gmail.com</t>
-  </si>
-  <si>
-    <t>+84123456789</t>
-  </si>
-  <si>
-    <t>38 Nguyen Du</t>
-  </si>
-  <si>
-    <t>12-02-2002</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>Phòng quản lý</t>
-  </si>
-  <si>
-    <t>Quản lý</t>
-  </si>
-  <si>
-    <t>11-11-2022</t>
-  </si>
-  <si>
-    <t>45678900</t>
   </si>
   <si>
     <t>39 Nguyen Du</t>
@@ -203,7 +206,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,15 +223,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,37 +294,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -288,14 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -305,29 +317,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,15 +339,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,121 +368,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,19 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,37 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,9 +564,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +603,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -601,30 +623,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,18 +653,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,127 +681,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -813,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,7 +1132,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1228,7 +1224,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -1240,7 +1236,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -1258,12 +1254,12 @@
         <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -1275,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -1293,12 +1289,12 @@
         <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -1310,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
@@ -1328,12 +1324,12 @@
         <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1345,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>16</v>
@@ -1363,12 +1359,12 @@
         <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -1380,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
@@ -1398,12 +1394,12 @@
         <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -1415,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
@@ -1433,12 +1429,12 @@
         <v>20</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1450,7 +1446,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
@@ -1468,12 +1464,12 @@
         <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1485,7 +1481,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
@@ -1503,12 +1499,12 @@
         <v>20</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1520,7 +1516,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>16</v>
@@ -1538,12 +1534,12 @@
         <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1555,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>16</v>
@@ -1573,12 +1569,12 @@
         <v>20</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1590,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>16</v>
@@ -1608,12 +1604,12 @@
         <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1625,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
@@ -1643,12 +1639,12 @@
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -1660,7 +1656,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>16</v>
@@ -1678,12 +1674,12 @@
         <v>20</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -1695,7 +1691,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>16</v>
@@ -1713,12 +1709,12 @@
         <v>20</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -1730,7 +1726,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>16</v>
@@ -1748,12 +1744,12 @@
         <v>20</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
@@ -1765,7 +1761,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>16</v>
@@ -1783,12 +1779,12 @@
         <v>20</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
@@ -1800,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>16</v>
@@ -1818,12 +1814,12 @@
         <v>20</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -1835,7 +1831,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
@@ -1853,7 +1849,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
